--- a/biology/Botanique/Marie_Baumann/Marie_Baumann.xlsx
+++ b/biology/Botanique/Marie_Baumann/Marie_Baumann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Marie Baumann' est un cultivar de rosier obtenu en 1863 par les rosiéristes alsaciens Constantin et Joseph Baumann, installés alors à Bollwiller dans le Haut-Rhin[1],[2]. Ce rosier original figure encore dans certains catalogues destinés aux amateurs de roses à l'aspect romantique.
+'Marie Baumann' est un cultivar de rosier obtenu en 1863 par les rosiéristes alsaciens Constantin et Joseph Baumann, installés alors à Bollwiller dans le Haut-Rhin,. Ce rosier original figure encore dans certains catalogues destinés aux amateurs de roses à l'aspect romantique.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride remontant séduit par la couleur carmin de ses fleurs et leur parfum prononcé. Celles-ci sont doubles (17-25 pétales), plutôt globuleuses et leur floraison en bouquets est remontante[3]. Le buisson s'élève à 120 cm[4].
-'Marie Baumann' résiste au froid (zone de rusticité 6b à 9b). Il peut être susceptible au mildiou[3].
-Ce rosier est issu de 'Général Jacqueminot' (hybride remontant, Roussel 1853) x 'Victor Verdier' (hybride remontant, Lacharme 1859)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride remontant séduit par la couleur carmin de ses fleurs et leur parfum prononcé. Celles-ci sont doubles (17-25 pétales), plutôt globuleuses et leur floraison en bouquets est remontante. Le buisson s'élève à 120 cm.
+'Marie Baumann' résiste au froid (zone de rusticité 6b à 9b). Il peut être susceptible au mildiou.
+Ce rosier est issu de 'Général Jacqueminot' (hybride remontant, Roussel 1853) x 'Victor Verdier' (hybride remontant, Lacharme 1859).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Dorothy Perkins', il a donné naissance à 'Fragezeichen' (Böttner 1910).
 </t>
